--- a/Practice_task02.xlsx
+++ b/Practice_task02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7906fa02fae7939c/Desktop/github/Data-analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{A4CE175A-84B6-4CB1-B9F7-8599389A7E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003CCF1F-63F2-4AA5-9432-59A03636F69C}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{A4CE175A-84B6-4CB1-B9F7-8599389A7E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0231BB32-0FCA-4458-9640-7C2352EC96AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{9D4A9268-8456-4CEB-919B-B75EE6E7D33A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D4A9268-8456-4CEB-919B-B75EE6E7D33A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -441,6 +441,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,6 +459,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992BB581-4D2D-4479-B12E-0B570A9EABB3}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1141,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDAADF-0A2B-4381-BC3D-8449C75CA732}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1781,7 +1788,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,17 +2099,19 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2125,9 +2134,9 @@
       <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="b">
-        <f>IF(B2&gt;=21,AND(C2&gt;=1,"Eligible"))</f>
-        <v>1</v>
+      <c r="D2" s="9" t="str">
+        <f>IF(AND(B2&gt;=21,C2&gt;=1),"Eligible","Not Eligible")</f>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -2140,9 +2149,9 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="b">
-        <f t="shared" ref="D3:D16" si="0">IF(B3&gt;=21,AND(C3&gt;=1,"Eligible"))</f>
-        <v>0</v>
+      <c r="D3" s="9" t="str">
+        <f t="shared" ref="D3:D16" si="0">IF(AND(B3&gt;=21,C3&gt;=1),"Eligible","Not Eligible")</f>
+        <v>Not Eligible</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -2155,9 +2164,9 @@
       <c r="C4" s="9">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2170,9 +2179,9 @@
       <c r="C5" s="9">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Eligible</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2185,9 +2194,9 @@
       <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2200,9 +2209,9 @@
       <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,9 +2224,9 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>41</v>
@@ -2236,9 +2245,9 @@
       <c r="C9" s="11">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>1</v>
@@ -2257,9 +2266,9 @@
       <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Eligible</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>42</v>
@@ -2284,9 +2293,9 @@
       <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>28</v>
@@ -2309,9 +2318,9 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Eligible</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>29</v>
@@ -2334,9 +2343,9 @@
       <c r="C13" s="11">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>30</v>
@@ -2359,9 +2368,9 @@
       <c r="C14" s="11">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>31</v>
@@ -2384,9 +2393,9 @@
       <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
@@ -2405,9 +2414,9 @@
       <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eligible</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>46</v>
@@ -3447,7 +3456,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
